--- a/ClientExcel/GameHot/Guide.xlsx
+++ b/ClientExcel/GameHot/Guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -41,9 +41,33 @@
     <t>NextId</t>
   </si>
   <si>
+    <t>TestArray</t>
+  </si>
+  <si>
+    <t>TestArray2</t>
+  </si>
+  <si>
+    <t>TestList</t>
+  </si>
+  <si>
+    <t>TestDic</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
+    <t>Int32[]</t>
+  </si>
+  <si>
+    <t>Vector3[]</t>
+  </si>
+  <si>
+    <t>List&lt;Int32&gt;</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;Int32,Int32&gt;</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -51,6 +75,30 @@
   </si>
   <si>
     <t>下一步的编号</t>
+  </si>
+  <si>
+    <t>测试数组</t>
+  </si>
+  <si>
+    <t>测试数组2</t>
+  </si>
+  <si>
+    <t>测试列表</t>
+  </si>
+  <si>
+    <t>测试字典</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>12.34,23.22,34.22|12.34,23.22,34.22|12.34,23.22,34.22</t>
+  </si>
+  <si>
+    <t>1,22,3</t>
+  </si>
+  <si>
+    <t>{1#1}|{2#2}|{3#3}</t>
   </si>
 </sst>
 </file>
@@ -63,13 +111,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -534,139 +588,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="7" width="23.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
@@ -1018,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,30 +1085,87 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/GameHot/Guide.xlsx
+++ b/ClientExcel/GameHot/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>#</t>
   </si>
@@ -41,31 +41,7 @@
     <t>NextId</t>
   </si>
   <si>
-    <t>TestArray</t>
-  </si>
-  <si>
-    <t>TestArray2</t>
-  </si>
-  <si>
-    <t>TestList</t>
-  </si>
-  <si>
-    <t>TestDic</t>
-  </si>
-  <si>
     <t>Int32</t>
-  </si>
-  <si>
-    <t>Int32[]</t>
-  </si>
-  <si>
-    <t>Vector3[]</t>
-  </si>
-  <si>
-    <t>List&lt;Int32&gt;</t>
-  </si>
-  <si>
-    <t>Dictionary&lt;Int32,Int32&gt;</t>
   </si>
   <si>
     <t>步骤编号</t>
@@ -75,30 +51,6 @@
   </si>
   <si>
     <t>下一步的编号</t>
-  </si>
-  <si>
-    <t>测试数组</t>
-  </si>
-  <si>
-    <t>测试数组2</t>
-  </si>
-  <si>
-    <t>测试列表</t>
-  </si>
-  <si>
-    <t>测试字典</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>12.34,23.22,34.22|12.34,23.22,34.22|12.34,23.22,34.22</t>
-  </si>
-  <si>
-    <t>1,22,3</t>
-  </si>
-  <si>
-    <t>{1#1}|{2#2}|{3#3}</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1007,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1075,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,88 +1037,40 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
